--- a/examples/thermodynamic_metabolic_model/data.xlsx
+++ b/examples/thermodynamic_metabolic_model/data.xlsx
@@ -25,10 +25,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="596">
   <si>
-    <t>!!!ObjTables objTablesVersion='1.0.1' date='2020-06-02 16:01:35'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Compartment' name='Compartments' date='2020-06-02 16:01:35' objTablesVersion='1.0.1'</t>
+    <t>!!!ObjTables objTablesVersion='1.0.9' date='2020-06-02 16:01:35' comment='Data obtained from Gerosa et al., Cell Systems, 2015, DOI: 10.1016/j.cels.2015.09.008'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Compartment' name='Compartments' date='2020-06-02 16:01:35' objTablesVersion='1.0.9'</t>
   </si>
   <si>
     <t>!Id</t>
@@ -49,7 +49,7 @@
     <t>extracellular space</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Metabolite' name='Metabolites' date='2020-06-02 16:01:35' objTablesVersion='1.0.1'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Metabolite' name='Metabolites' date='2020-06-02 16:01:35' objTablesVersion='1.0.9'</t>
   </si>
   <si>
     <t>!Formula</t>
@@ -571,7 +571,7 @@
     <t>D-Xylulose 5-phosphate</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Reaction' name='Reactions' date='2020-06-02 16:01:35' objTablesVersion='1.0.1'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Reaction' name='Reactions' date='2020-06-02 16:01:35' objTablesVersion='1.0.9'</t>
   </si>
   <si>
     <t>!Id (iAF1260 [Ref1])</t>
@@ -1780,7 +1780,7 @@
     <t>1.1.1.49</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Reference' name='References' date='2020-05-28 23:58:52' objTablesVersion='1.0.1' format='row'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Reference' name='References' date='2020-05-28 23:58:52' objTablesVersion='1.0.9' format='row'</t>
   </si>
   <si>
     <t>!Title</t>
@@ -1874,7 +1874,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
